--- a/Option_pricing/test/Data/bs_benchmark_results.xlsx
+++ b/Option_pricing/test/Data/bs_benchmark_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junshenzeng/DataspellProjects/TRM_Engineering_Interview/Option_pricing/test/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GY86AW\PycharmProjects\TRM_Engineering\Option_pricing\test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB24FD80-32F2-F247-9D70-972AC83FB73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D89146C-12AA-4F49-B7F8-FBFD063B8644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="17960" windowHeight="17320" xr2:uid="{4F84F26D-B08E-B04C-9B86-DA120CB1A038}"/>
+    <workbookView xWindow="6270" yWindow="3230" windowWidth="27480" windowHeight="17400" xr2:uid="{4F84F26D-B08E-B04C-9B86-DA120CB1A038}"/>
   </bookViews>
   <sheets>
     <sheet name="spot_price" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>test_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,9 @@
   <si>
     <t>out_of_the_money_call</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_yield_cont</t>
   </si>
 </sst>
 </file>
@@ -98,21 +101,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -153,15 +156,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,11 +180,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Questions"/>
       <sheetName val="Option"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,21 +541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C378C5-2CE4-4E4C-A7C9-54E132A4FFC0}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" style="1"/>
+    <col min="2" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,19 +577,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -611,23 +616,26 @@
         <v>4.9875415110389679E-3</v>
       </c>
       <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <f>[1]Option!$C$22</f>
         <v>0.65952577424589309</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <f>[1]Option!$C$23</f>
         <v>0.45599529118685211</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <f>[1]Option!$C$27</f>
         <v>2.6968842086815044</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <f>[1]Option!$C$32</f>
         <v>0.657903164673872</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -651,23 +659,26 @@
         <v>4.9875415110389679E-3</v>
       </c>
       <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <f>(LN(B3/C3)+(F3+0.5*(D3^2))*E3)/(D3*SQRT(E3))</f>
         <v>0.11304431634084026</v>
       </c>
-      <c r="H3" s="1">
-        <f>G3-D3*SQRT(E3)</f>
+      <c r="I3" s="1">
+        <f>H3-D3*SQRT(E3)</f>
         <v>-9.0486166718200742E-2</v>
       </c>
-      <c r="I3" s="1">
-        <f>B3*NORMSDIST(G3)-EXP(-F3*E3)*NORMSDIST(H3)*C3</f>
+      <c r="J3" s="1">
+        <f>B3*NORMSDIST(H3)-EXP(-F3*E3)*NORMSDIST(I3)*C3</f>
         <v>1.5601980331169489</v>
       </c>
-      <c r="J3" s="1">
-        <f>I3-B3+EXP(-F3*E3)*C3</f>
+      <c r="K3" s="1">
+        <f>J3-B3+EXP(-F3*E3)*C3</f>
         <v>1.5166309839319467</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -691,24 +702,28 @@
         <v>4.9875415110389679E-3</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <f>(LN(B4/C4)+(F4+0.5*(D4^2))*E4)/(D4*SQRT(E4))</f>
         <v>-0.13897343361296491</v>
       </c>
-      <c r="H4" s="1">
-        <f>G4-D4*SQRT(E4)</f>
+      <c r="I4" s="1">
+        <f>H4-D4*SQRT(E4)</f>
         <v>-0.34250391667200591</v>
       </c>
-      <c r="I4" s="1">
-        <f>B4*NORMSDIST(G4)-EXP(-F4*E4)*NORMSDIST(H4)*C4</f>
+      <c r="J4" s="1">
+        <f>B4*NORMSDIST(H4)-EXP(-F4*E4)*NORMSDIST(I4)*C4</f>
         <v>1.1470430112987771</v>
       </c>
-      <c r="J4" s="1">
-        <f>I4-B4+EXP(-F4*E4)*C4</f>
+      <c r="K4" s="1">
+        <f>J4-B4+EXP(-F4*E4)*C4</f>
         <v>2.1011829595250902</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>